--- a/base.xlsx
+++ b/base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,20 +483,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>953f5addca9d58a2767a62ddde09060a</t>
+          <t>e1bda9f51758242f0f83e7b39f40bafa</t>
         </is>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Derek Marmol</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+          <t>Admin Derek Marmol</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>[-0.1028024   0.07925046  0.04417609 -0.05620852 -0.07821578  0.0425368
@@ -527,23 +525,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kevinexpo@gmail.com</t>
+          <t>korellanaa6@miumg.edu.gt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>expo4813</t>
+          <t>09072312047</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0d072c7f733e3759c2d8346cd429fd57</t>
+          <t>b759e7bfee731e3db07eab83b68205b1</t>
         </is>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Kevin Orellana</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -582,6 +584,702 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lcarranzag2@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0907225817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ludin Carranza</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>equinonezh1@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09072222545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Edgar Herrera</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>llemusm8@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0907231139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Leonel Lemus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mportillol2@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0907234166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>María Jose Portillo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fcarranzac1@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0907234766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fernando Carranza</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>apenap1@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0907235304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Astrid Polanco</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>alopezm114miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0907236457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Angel Lopez</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>arecinosc10@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0907237379</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Allan Recinos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lramirezb10@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0907238082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Luis Ramirez</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dcontrerasd@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0907238207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diego Contreras</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aolivac4@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0907239832</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ana Laura Cruz</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bmoralesm16@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>09072310341</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Brandon Melendrez</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ytobarl1@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09072311016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yeferson Lemus</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dfajardob@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09072311346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Delmy Fajardo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cchamom2@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09072311907</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cristian Chamo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mgudiell3@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09072312821</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Marvin Gudiel</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>anajeram@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09072313067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cristina Najera</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dortizc13@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>09072314054</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Daniel Ortiz</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>aulloat@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09072314513</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Andreina Ulloa</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>clopezl45@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>09072315408</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Christian Lopes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>jcaalc26@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>09072317525</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jose Cristales</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jucelor@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>09072318008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Danilo Ucelo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>msermenor@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>09072317114</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Madisson Rivas</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sorellanag3@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>09072319496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Celeste Orellana</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>asandovalp9@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>09072319786</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Aura Lucia Sandoval</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>klopezh16@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>09072321839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Keily Lopez</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fcardonam4@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>09072322830</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Freddy Cardona</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jpinedad5@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>09072325431</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Julio Pineda</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>psalgueros@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>09072415191</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Patrick Solares</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dcamerosv@miumg.edu.gt</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>expoadmin</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>61344940197527eaa55f13dcccab9053</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Licenciada Dania</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>61344940197527eaa55f13dcccab9053</t>
+          <t>133b57943709be8a50c9d285cfddea2e</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>133b57943709be8a50c9d285cfddea2e</t>
+          <t>7583f152fa1beb7bbdeb83b398ea833f</t>
         </is>
       </c>
       <c r="D33" t="b">

--- a/base.xlsx
+++ b/base.xlsx
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7583f152fa1beb7bbdeb83b398ea833f</t>
+          <t>093d7909f0a2746423785652c0cfe4fd</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>093d7909f0a2746423785652c0cfe4fd</t>
+          <t>2ac1926ca661b68566a0115e6acc2104</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>e1bda9f51758242f0f83e7b39f40bafa</t>
+          <t>d86ba49de0ad4f78f635785163fdb4b5</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2ac1926ca661b68566a0115e6acc2104</t>
+          <t>6ed18c24043a1a046b3f6e2239d912da</t>
         </is>
       </c>
       <c r="D33" t="b">
